--- a/biology/Histoire de la zoologie et de la botanique/Yvonne_Artaud/Yvonne_Artaud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yvonne_Artaud/Yvonne_Artaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yvonne Artaud (Lyon, 1924 - Pondichéry, 5 août 2009) éducatrice, éthologue, est la proche collaboratrice du penseur, philosophe et égyptologue allemand Medhananda. Elle est une des disciples de Sri Aurobindo et contribue à la création d'Auroville.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yvonne Artaud, la collaboratrice de Medhananda, est née en 1924 à Lyon, France, et est chirurgien-dentiste pour enfants à Paris avant de rejoindre l'Ashram de Sri Aurobindo en 1952. Là elle devient éducatrice au Centre International d'éducation Sri Aurobindo sous la direction de Pavitra. Également artiste, elle peint de nombreuses toiles et écrit des poèmes et des pièces de théâtre, ses œuvres sont actuellement conservées à l'Identity Research Institute, à Pondichéry.
 Depuis 1963 elle s'investit dans la recherche sur la psychologie de la conscience de soi, particulièrement chez les enfants pré-scolarisés et les primates de l'Inde du Sud.
@@ -545,7 +559,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sri Aurobindo
 Pavitra
